--- a/Chapter4_Additional_Files/AdditionalFile4_type2nodes.xlsx
+++ b/Chapter4_Additional_Files/AdditionalFile4_type2nodes.xlsx
@@ -7784,7 +7784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA731"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
